--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bmgf-my.sharepoint.com/personal/rui_han_gatesfoundation_org/Documents/Documents/GitHub/Ethiopia-HEP-Capacity-Analysis/config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\PACE-HRH-UI\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{4D2B757C-B76C-4E63-AFF6-4E5FB6B83359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F21957F5-7A38-405E-98F2-26B417677D3E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A1063-8038-46D1-A7FE-B2B50972AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" tabRatio="830" firstSheet="8" activeTab="14" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13400" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="346">
   <si>
     <t>Pregnancy</t>
   </si>
@@ -1082,15 +1082,9 @@
     <t>Source:</t>
   </si>
   <si>
-    <t>TaskValues_basic</t>
-  </si>
-  <si>
     <t>TaskValues_expanded</t>
   </si>
   <si>
-    <t>Expanded</t>
-  </si>
-  <si>
     <t>Cells in green are imported directly into the model.</t>
   </si>
   <si>
@@ -1352,10 +1346,10 @@
     <t>StepCoverage</t>
   </si>
   <si>
-    <t>CoverageRates_step</t>
-  </si>
-  <si>
     <t>MaxUtilization</t>
+  </si>
+  <si>
+    <t>Demo</t>
   </si>
 </sst>
 </file>
@@ -2138,9 +2132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2178,7 +2172,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2284,7 +2278,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2426,7 +2420,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2488,12 +2482,12 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="P3" s="28" t="b">
         <v>1</v>
@@ -2507,7 +2501,7 @@
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="P4" s="28" t="b">
         <v>0</v>
@@ -2521,7 +2515,7 @@
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.35">
       <c r="B6" s="5" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2589,7 +2583,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>36</v>
@@ -2642,7 +2636,7 @@
     </row>
     <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>51</v>
@@ -2683,7 +2677,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>54</v>
@@ -2724,10 +2718,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>151</v>
@@ -2766,10 +2760,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -2808,10 +2802,10 @@
     </row>
     <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>60</v>
@@ -2850,10 +2844,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -2874,7 +2868,7 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="41"/>
@@ -2892,10 +2886,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>57</v>
@@ -2934,13 +2928,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>52</v>
@@ -2976,10 +2970,10 @@
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
@@ -3018,13 +3012,13 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>52</v>
@@ -3042,13 +3036,13 @@
         <v>2.0927000000000001E-4</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J11" s="58">
         <v>4</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L11" s="58">
         <v>0.90986310592664843</v>
@@ -3064,13 +3058,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>52</v>
@@ -3094,7 +3088,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L12" s="24">
         <v>1</v>
@@ -3110,10 +3104,10 @@
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -3140,7 +3134,7 @@
         <v>0.05</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
@@ -3156,10 +3150,10 @@
     </row>
     <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>155</v>
@@ -3198,10 +3192,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
         <v>156</v>
@@ -3313,7 +3307,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B1" s="44" t="s">
         <v>36</v>
@@ -3366,7 +3360,7 @@
     </row>
     <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="52" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B2" s="53" t="s">
         <v>51</v>
@@ -3407,7 +3401,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>54</v>
@@ -3448,10 +3442,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>151</v>
@@ -3490,10 +3484,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
@@ -3532,10 +3526,10 @@
     </row>
     <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C6" s="66" t="s">
         <v>60</v>
@@ -3574,10 +3568,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>56</v>
@@ -3598,7 +3592,7 @@
         <v>3.0680000000000001</v>
       </c>
       <c r="I7" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J7" s="9"/>
       <c r="K7" s="41"/>
@@ -3616,10 +3610,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>57</v>
@@ -3658,13 +3652,13 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>52</v>
@@ -3700,10 +3694,10 @@
     </row>
     <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C10" t="s">
         <v>154</v>
@@ -3742,13 +3736,13 @@
     </row>
     <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B11" s="53" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C11" s="54" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D11" s="55" t="s">
         <v>52</v>
@@ -3766,13 +3760,13 @@
         <v>2.0927000000000001E-4</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J11" s="58">
         <v>4</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L11" s="58">
         <v>0.90986310592664843</v>
@@ -3788,13 +3782,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>52</v>
@@ -3818,7 +3812,7 @@
         <v>4</v>
       </c>
       <c r="K12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L12" s="24">
         <v>1</v>
@@ -3834,10 +3828,10 @@
     </row>
     <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C13" t="s">
         <v>158</v>
@@ -3864,7 +3858,7 @@
         <v>0.05</v>
       </c>
       <c r="K13" s="41" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L13" s="9">
         <v>1</v>
@@ -3880,10 +3874,10 @@
     </row>
     <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="52" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B14" s="53" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C14" s="54" t="s">
         <v>155</v>
@@ -3922,10 +3916,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C15" t="s">
         <v>156</v>
@@ -3964,10 +3958,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C16" t="s">
         <v>249</v>
@@ -4006,10 +4000,10 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C17" t="s">
         <v>250</v>
@@ -4048,10 +4042,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C18" t="s">
         <v>251</v>
@@ -4090,10 +4084,10 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C19" t="s">
         <v>252</v>
@@ -4132,10 +4126,10 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C20" t="s">
         <v>253</v>
@@ -4174,10 +4168,10 @@
     </row>
     <row r="21" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="64" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C21" s="66" t="s">
         <v>254</v>
@@ -4216,10 +4210,10 @@
     </row>
     <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="52" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B22" s="53" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C22" s="54" t="s">
         <v>114</v>
@@ -4258,13 +4252,13 @@
     </row>
     <row r="23" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="64" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>149</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D23" s="67" t="s">
         <v>153</v>
@@ -4282,7 +4276,7 @@
         <v>1E-3</v>
       </c>
       <c r="I23" s="70" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J23" s="71"/>
       <c r="L23" s="71">
@@ -4384,67 +4378,67 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>341</v>
-      </c>
-      <c r="V1" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -4592,7 +4586,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>151</v>
@@ -4600,7 +4594,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -4608,7 +4602,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -4616,7 +4610,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -4624,7 +4618,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -4632,15 +4626,15 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>154</v>
@@ -4648,23 +4642,23 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
         <v>158</v>
@@ -4672,7 +4666,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
         <v>155</v>
@@ -4680,7 +4674,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
         <v>156</v>
@@ -4688,7 +4682,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>249</v>
@@ -4711,7 +4705,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
         <v>250</v>
@@ -4719,7 +4713,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
         <v>251</v>
@@ -4727,7 +4721,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
         <v>252</v>
@@ -4735,7 +4729,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
         <v>253</v>
@@ -4743,7 +4737,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
         <v>254</v>
@@ -4788,67 +4782,67 @@
         <v>37</v>
       </c>
       <c r="C1" s="103" t="s">
+        <v>321</v>
+      </c>
+      <c r="D1" s="103" t="s">
+        <v>322</v>
+      </c>
+      <c r="E1" s="103" t="s">
         <v>323</v>
       </c>
-      <c r="D1" s="103" t="s">
+      <c r="F1" s="103" t="s">
         <v>324</v>
       </c>
-      <c r="E1" s="103" t="s">
+      <c r="G1" s="103" t="s">
         <v>325</v>
       </c>
-      <c r="F1" s="103" t="s">
+      <c r="H1" s="103" t="s">
         <v>326</v>
       </c>
-      <c r="G1" s="103" t="s">
+      <c r="I1" s="103" t="s">
         <v>327</v>
       </c>
-      <c r="H1" s="103" t="s">
+      <c r="J1" s="103" t="s">
         <v>328</v>
       </c>
-      <c r="I1" s="103" t="s">
+      <c r="K1" s="103" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="103" t="s">
+      <c r="L1" s="103" t="s">
         <v>330</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="M1" s="103" t="s">
         <v>331</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="N1" s="103" t="s">
         <v>332</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="O1" s="103" t="s">
         <v>333</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="P1" s="103" t="s">
         <v>334</v>
       </c>
-      <c r="O1" s="103" t="s">
+      <c r="Q1" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="P1" s="103" t="s">
+      <c r="R1" s="103" t="s">
         <v>336</v>
       </c>
-      <c r="Q1" s="103" t="s">
+      <c r="S1" s="103" t="s">
         <v>337</v>
       </c>
-      <c r="R1" s="103" t="s">
+      <c r="T1" s="103" t="s">
         <v>338</v>
       </c>
-      <c r="S1" s="103" t="s">
+      <c r="U1" s="103" t="s">
         <v>339</v>
       </c>
-      <c r="T1" s="103" t="s">
+      <c r="V1" s="103" t="s">
         <v>340</v>
       </c>
-      <c r="U1" s="103" t="s">
+      <c r="W1" s="103" t="s">
         <v>341</v>
-      </c>
-      <c r="V1" s="103" t="s">
-        <v>342</v>
-      </c>
-      <c r="W1" s="103" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.35">
@@ -4872,7 +4866,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B4" t="s">
         <v>151</v>
@@ -4880,7 +4874,7 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
         <v>58</v>
@@ -4888,7 +4882,7 @@
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -4896,7 +4890,7 @@
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B7" t="s">
         <v>56</v>
@@ -4904,7 +4898,7 @@
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
@@ -4912,15 +4906,15 @@
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B10" t="s">
         <v>154</v>
@@ -4928,23 +4922,23 @@
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B12" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B13" t="s">
         <v>158</v>
@@ -4952,7 +4946,7 @@
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B14" t="s">
         <v>155</v>
@@ -4960,7 +4954,7 @@
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B15" t="s">
         <v>156</v>
@@ -4968,7 +4962,7 @@
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B16" t="s">
         <v>249</v>
@@ -4976,7 +4970,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B17" t="s">
         <v>250</v>
@@ -4984,7 +4978,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B18" t="s">
         <v>251</v>
@@ -4992,7 +4986,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B19" t="s">
         <v>252</v>
@@ -5000,7 +4994,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B20" t="s">
         <v>253</v>
@@ -5008,7 +5002,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
         <v>254</v>
@@ -5055,10 +5049,10 @@
   <sheetData>
     <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="85" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B1" s="87" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C1" s="88" t="str">
         <f>_xlfn.CONCAT("StartYear", 2020)</f>
@@ -5125,43 +5119,43 @@
         <v>37</v>
       </c>
       <c r="C2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="I2" s="90" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J2" s="90" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K2" s="90" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="L2" s="91" t="s">
         <v>34</v>
       </c>
       <c r="M2" s="90" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="N2" s="90" t="s">
+        <v>302</v>
+      </c>
+      <c r="O2" s="90" t="s">
         <v>304</v>
-      </c>
-      <c r="O2" s="90" t="s">
-        <v>306</v>
       </c>
       <c r="P2" s="91" t="s">
         <v>34</v>
@@ -5279,7 +5273,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="37" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" t="str">
         <f>VLOOKUP(A5,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5334,7 +5328,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B6" t="str">
         <f>VLOOKUP(A6,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5389,7 +5383,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="37" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B7" t="str">
         <f>VLOOKUP(A7,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5444,7 +5438,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="37" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B8" t="str">
         <f>VLOOKUP(A8,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5499,7 +5493,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="37" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B9" t="str">
         <f>VLOOKUP(A9,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5554,7 +5548,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="37" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B10" t="str">
         <f>VLOOKUP(A10,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5609,7 +5603,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="37" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B11" t="str">
         <f>VLOOKUP(A11,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5664,7 +5658,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="37" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B12" t="str">
         <f>VLOOKUP(A12,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5719,7 +5713,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="37" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B13" t="str">
         <f>VLOOKUP(A13,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5774,7 +5768,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B14" t="str">
         <f>VLOOKUP(A14,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5829,7 +5823,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B15" t="str">
         <f>VLOOKUP(A15,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5884,7 +5878,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="37" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B16" t="str">
         <f>VLOOKUP(A16,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5939,7 +5933,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B17" t="str">
         <f>VLOOKUP(A17,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -5994,7 +5988,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B18" t="str">
         <f>VLOOKUP(A18,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -6049,7 +6043,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B19" t="str">
         <f>VLOOKUP(A19,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -6104,7 +6098,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B20" t="str">
         <f>VLOOKUP(A20,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -6159,7 +6153,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B21" t="str">
         <f>VLOOKUP(A21,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -6214,7 +6208,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B22" t="str">
         <f>VLOOKUP(A22,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -6269,7 +6263,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B23" t="str">
         <f>VLOOKUP(A23,TaskValues_expanded!B:C,2,FALSE)</f>
@@ -6413,8 +6407,8 @@
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6429,16 +6423,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="82" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="82" t="s">
+        <v>299</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="82" t="s">
-        <v>301</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>302</v>
-      </c>
       <c r="D1" s="82" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E1" s="82" t="s">
         <v>247</v>
@@ -6449,13 +6443,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="22">
         <v>5</v>
@@ -6469,13 +6463,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D3" s="22">
         <v>5</v>
@@ -6487,13 +6481,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D4" s="22">
         <v>5</v>
@@ -6505,13 +6499,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D5" s="22">
         <v>5</v>
@@ -6525,13 +6519,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D6" s="22">
         <v>5</v>
@@ -6543,13 +6537,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>258</v>
+        <v>345</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="22">
         <v>5</v>
@@ -6561,13 +6555,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D8" s="22">
         <v>5</v>
@@ -6581,13 +6575,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D9" s="22">
         <v>5</v>
@@ -6599,13 +6593,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D10" s="22">
         <v>5</v>
@@ -6617,13 +6611,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D11" s="22">
         <v>5</v>
@@ -6637,13 +6631,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D12" s="22">
         <v>5</v>
@@ -6655,13 +6649,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D13" s="22">
         <v>5</v>
@@ -6873,7 +6867,7 @@
         <v>176</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.35">
@@ -6899,7 +6893,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.35">
@@ -6925,7 +6919,7 @@
         <v>4</v>
       </c>
       <c r="L3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.35">
@@ -6951,7 +6945,7 @@
         <v>9</v>
       </c>
       <c r="L4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.35">
@@ -6977,7 +6971,7 @@
         <v>9</v>
       </c>
       <c r="L5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.35">
@@ -7956,10 +7950,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7989,7 +7983,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="E1" s="83" t="s">
         <v>9</v>
@@ -8019,12 +8013,12 @@
         <v>170</v>
       </c>
       <c r="N1" s="83" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="27" t="s">
-        <v>298</v>
+      <c r="A2" s="5" t="s">
+        <v>345</v>
       </c>
       <c r="B2" s="27">
         <v>48</v>
@@ -8054,149 +8048,48 @@
         <v>256</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>143</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B3" s="27">
-        <v>48</v>
-      </c>
-      <c r="C3" s="27">
-        <v>32</v>
-      </c>
-      <c r="D3" s="27">
-        <v>0.85</v>
-      </c>
-      <c r="E3" s="27">
-        <v>5000</v>
-      </c>
-      <c r="F3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>344</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B4" s="27">
-        <v>48</v>
-      </c>
-      <c r="C4" s="27">
-        <v>32</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0.85</v>
-      </c>
-      <c r="E4" s="27">
-        <v>5000</v>
-      </c>
-      <c r="F4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>344</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B5" s="27">
-        <v>48</v>
-      </c>
-      <c r="C5" s="27">
-        <v>32</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0.85</v>
-      </c>
-      <c r="E5" s="27">
-        <v>5000</v>
-      </c>
-      <c r="F5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="27" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="L5" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>346</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="4"/>
@@ -8218,44 +8111,13 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-    </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C4 E2:E4" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:C2 E2" xr:uid="{51E01DD3-1F4F-4ECB-945C-BF7AC154B4D2}">
       <formula1>0</formula1>
       <formula2>10000000000</formula2>
     </dataValidation>
-    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A5 J2:M4 J5" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:M2 A2" xr:uid="{87300A30-10E8-4D88-9E37-E7127D8D74E3}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -8273,7 +8135,7 @@
           <x14:formula1>
             <xm:f>'Read Me'!$P$3:$P$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:I4</xm:sqref>
+          <xm:sqref>F2:I2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8335,7 +8197,7 @@
         <v>179</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>180</v>
@@ -8361,7 +8223,7 @@
         <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>180</v>
@@ -8569,7 +8431,7 @@
         <v>189</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>180</v>
@@ -9163,13 +9025,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="92" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="93" t="s">
+        <v>315</v>
+      </c>
+      <c r="C1" s="94" t="s">
         <v>316</v>
-      </c>
-      <c r="B1" s="93" t="s">
-        <v>317</v>
-      </c>
-      <c r="C1" s="94" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -9196,7 +9058,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="102"/>
@@ -12537,7 +12399,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
         <v>58</v>
@@ -12562,7 +12424,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
         <v>60</v>
@@ -12581,7 +12443,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s">
         <v>151</v>
@@ -12604,7 +12466,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B6" t="s">
         <v>150</v>
@@ -12625,7 +12487,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s">
         <v>155</v>
@@ -12644,7 +12506,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B8" t="s">
         <v>156</v>
@@ -12663,7 +12525,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B9" t="s">
         <v>157</v>

--- a/config/model_inputs_demo.xlsx
+++ b/config/model_inputs_demo.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\PACE-HRH-UI\config\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A1063-8038-46D1-A7FE-B2B50972AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{E37A1063-8038-46D1-A7FE-B2B50972AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F2816C9-7F06-4D3B-8340-05AC64186FF5}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13400" tabRatio="830" firstSheet="1" activeTab="1" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
+    <workbookView xWindow="21405" yWindow="-19695" windowWidth="23235" windowHeight="13995" tabRatio="830" firstSheet="1" activeTab="2" xr2:uid="{2F49C92C-A2E5-4A6B-9429-02A43E12B5B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Read Me" sheetId="77" r:id="rId1"/>
@@ -31,24 +26,9 @@
     <sheet name="Data dictionary Scenarios" sheetId="63" r:id="rId16"/>
     <sheet name="Lookup" sheetId="84" r:id="rId17"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId18"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">TaskValues_basic!$B$1:$Q$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">TaskValues_expanded!$B$1:$P$22</definedName>
-    <definedName name="hours" localSheetId="3">#REF!</definedName>
-    <definedName name="hours">#REF!</definedName>
-    <definedName name="select_pop" localSheetId="3">#REF!</definedName>
-    <definedName name="select_pop">#REF!</definedName>
-    <definedName name="total_pop" localSheetId="3">#REF!</definedName>
-    <definedName name="total_pop" localSheetId="5">RuralPop!#REF!</definedName>
-    <definedName name="total_pop" localSheetId="4">TotalPop!#REF!</definedName>
-    <definedName name="total_pop">#REF!</definedName>
-    <definedName name="total_pop2" localSheetId="3">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="total_pop2">[1]Demographics_Total!$CZ$3</definedName>
-    <definedName name="weeks" localSheetId="3">#REF!</definedName>
-    <definedName name="weeks">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -188,7 +168,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{15E9D0E6-7E00-496C-82F5-4E3CFF13E51F}">
@@ -224,7 +204,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -246,7 +226,7 @@
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{3AB316E4-10F3-4507-B0EF-A22783A43FA9}">
@@ -259,7 +239,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -280,7 +260,7 @@
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Rui Han (AgileOne)</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{CA017E4B-2D5B-4FF4-955D-34398DF7F06C}">
@@ -293,7 +273,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Rui Han (AgileOne):</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -1981,154 +1961,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="To Do or Upgrade"/>
-      <sheetName val="Inputs Assump"/>
-      <sheetName val="C FTE Equiv"/>
-      <sheetName val="C Tot Hrs by Cat"/>
-      <sheetName val="C Variance"/>
-      <sheetName val="Time Summary"/>
-      <sheetName val="C Hrs by Category (3)"/>
-      <sheetName val="C Hrs by Category (2)"/>
-      <sheetName val="C Ratio to Baseline"/>
-      <sheetName val="Pie 2020"/>
-      <sheetName val="Calculations"/>
-      <sheetName val="Demographics_InCalc"/>
-      <sheetName val="Births"/>
-      <sheetName val="Mortality"/>
-      <sheetName val="FH.MC"/>
-      <sheetName val="FH.FP"/>
-      <sheetName val="FH.Im"/>
-      <sheetName val="FH.N"/>
-      <sheetName val="DPC"/>
-      <sheetName val="Other"/>
-      <sheetName val="DATA"/>
-      <sheetName val="Ssn Malaria"/>
-      <sheetName val="Ssn Nutr"/>
-      <sheetName val="Ssn Measles"/>
-      <sheetName val="Demographics_Total"/>
-      <sheetName val="Prevalences"/>
-      <sheetName val="Work time"/>
-      <sheetName val="Sheet21"/>
-      <sheetName val="Services summary"/>
-      <sheetName val="Services ref"/>
-      <sheetName val="Coverage impacts"/>
-      <sheetName val="Pop M"/>
-      <sheetName val="Pop F"/>
-      <sheetName val="TB Incidence"/>
-      <sheetName val="Malaria Incid"/>
-      <sheetName val="C Fertility"/>
-      <sheetName val="fertility"/>
-      <sheetName val="FP mod"/>
-      <sheetName val="unmet need"/>
-      <sheetName val="HIV Prev"/>
-      <sheetName val="HIV Incid"/>
-      <sheetName val="mort infant"/>
-      <sheetName val="mort 1-5"/>
-      <sheetName val="mort 5-9"/>
-      <sheetName val="mort 10-14"/>
-      <sheetName val="mort 15-19"/>
-      <sheetName val="mort 20-24"/>
-      <sheetName val="mort adult f"/>
-      <sheetName val="mort adult m"/>
-      <sheetName val="Staffing Ratios"/>
-      <sheetName val="fertility 15-19"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Ratio max rural</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11">
-        <row r="4">
-          <cell r="V4">
-            <v>105.34416988791497</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24">
-        <row r="3">
-          <cell r="CZ3">
-            <v>115103531.71799999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-      <sheetData sheetId="33" refreshError="1"/>
-      <sheetData sheetId="34" refreshError="1"/>
-      <sheetData sheetId="35" refreshError="1"/>
-      <sheetData sheetId="36" refreshError="1"/>
-      <sheetData sheetId="37" refreshError="1"/>
-      <sheetData sheetId="38" refreshError="1"/>
-      <sheetData sheetId="39">
-        <row r="77">
-          <cell r="BC77">
-            <v>1.4</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="40">
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>Ethiopia</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="41" refreshError="1"/>
-      <sheetData sheetId="42" refreshError="1"/>
-      <sheetData sheetId="43" refreshError="1"/>
-      <sheetData sheetId="44" refreshError="1"/>
-      <sheetData sheetId="45" refreshError="1"/>
-      <sheetData sheetId="46" refreshError="1"/>
-      <sheetData sheetId="47" refreshError="1"/>
-      <sheetData sheetId="48" refreshError="1"/>
-      <sheetData sheetId="49" refreshError="1"/>
-      <sheetData sheetId="50" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Rui Han (AgileOne)" id="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" userId="S::rui.han@gatesfoundation.org::8e2486fc-4f63-445b-b2ee-a849708c4214" providerId="AD"/>
-  <person displayName="Brittany Hagedorn" id="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" userId="S::Brittany.Hagedorn@gatesfoundation.org::5a602c7b-e691-4c99-b6e7-afdfc0897536" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2428,40 +2262,40 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2022-11-12T18:35:53.10" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
+  <threadedComment ref="A1" dT="2022-11-12T18:35:53.10" personId="{00000000-0000-0000-0000-000000000000}" id="{328CAD55-03AD-4788-A8E4-651178ABBA8A}">
     <text>Needs to be a unique value, but the text content does not matter. It is easier to work with the results if there are not spaces in the names.</text>
   </threadedComment>
-  <threadedComment ref="B1" dT="2022-11-12T18:33:54.25" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{48830E88-85FB-4EF7-929D-D5F68EF17275}">
+  <threadedComment ref="B1" dT="2022-11-12T18:33:54.25" personId="{00000000-0000-0000-0000-000000000000}" id="{48830E88-85FB-4EF7-929D-D5F68EF17275}">
     <text>Should be &lt;= 52</text>
   </threadedComment>
-  <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
+  <threadedComment ref="C1" dT="2022-11-12T18:34:11.60" personId="{00000000-0000-0000-0000-000000000000}" id="{FEADEA4A-B72E-4A9D-858D-15AEFC2C5D84}">
     <text>Should typically be &lt;= 40</text>
   </threadedComment>
-  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
+  <threadedComment ref="F1" dT="2022-11-12T18:34:44.31" personId="{00000000-0000-0000-0000-000000000000}" id="{4B821083-4883-4DD4-8E34-3EE4038314CD}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
+  <threadedComment ref="G1" dT="2022-11-12T18:34:48.58" personId="{00000000-0000-0000-0000-000000000000}" id="{1DF2B7BE-0D6C-4A5C-A888-20C5FF4E092F}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
+  <threadedComment ref="H1" dT="2022-11-12T18:34:52.99" personId="{00000000-0000-0000-0000-000000000000}" id="{2D782116-F72C-4F5F-8902-A8D67CBE7111}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
+  <threadedComment ref="I1" dT="2022-11-12T18:34:57.44" personId="{00000000-0000-0000-0000-000000000000}" id="{937C2882-FF84-4DCB-B0AB-DCC54FB4D5E9}">
     <text>Typically TRUE except for scenario analysis</text>
   </threadedComment>
-  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
+  <threadedComment ref="J1" dT="2022-11-12T18:36:24.37" personId="{00000000-0000-0000-0000-000000000000}" id="{407F3D1C-2F4A-4373-AB04-136CA0DC1F4D}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task values information.</text>
   </threadedComment>
-  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
+  <threadedComment ref="K1" dT="2022-11-12T18:36:40.56" personId="{00000000-0000-0000-0000-000000000000}" id="{81CABEFC-7899-4C7A-B9AE-4E2D5F662376}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the initial population demographics.</text>
   </threadedComment>
-  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
+  <threadedComment ref="L1" dT="2022-11-12T18:37:20.11" personId="{00000000-0000-0000-0000-000000000000}" id="{014F1C08-667B-46ED-851F-81B8588E32D0}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the seasonality information. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{03786AFB-E7BB-4FA7-846C-835FB448EEBC}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
+  <threadedComment ref="M1" dT="2022-11-12T18:37:39.80" personId="{00000000-0000-0000-0000-000000000000}" id="{4CC0DF8F-AAA1-4EBE-B532-0D230C5FDFB7}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the cadre task allocations. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
-  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{9909CE15-4B7B-4B12-B2AC-B027CA4AD901}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
+  <threadedComment ref="N1" dT="2023-06-06T20:39:28.17" personId="{00000000-0000-0000-0000-000000000000}" id="{E0287D98-688F-4109-B85D-5FB1C1026365}">
     <text>The exact name (including capitalization) of a tab in this workbook that contains the task-specific coverage rates. Can be one or multiple tabs, but only one is used per scenario run.</text>
   </threadedComment>
 </ThreadedComments>
@@ -2478,14 +2312,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" t="s">
         <v>310</v>
       </c>
@@ -2499,7 +2333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" t="s">
         <v>318</v>
       </c>
@@ -2513,7 +2347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="5" t="s">
         <v>257</v>
       </c>
@@ -2522,29 +2356,30 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H11" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.55000000000000004">
       <c r="H12" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2555,33 +2390,33 @@
   </sheetPr>
   <dimension ref="A1:Q16"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.26953125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.90625" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.453125" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="27.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1015625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.47265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.26171875" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.89453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.3671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.47265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.47265625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
     <col min="15" max="15" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.26171875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="43" t="s">
         <v>276</v>
       </c>
@@ -2634,7 +2469,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
         <v>277</v>
       </c>
@@ -2675,7 +2510,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>277</v>
       </c>
@@ -2716,7 +2551,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>277</v>
       </c>
@@ -2758,7 +2593,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -2800,7 +2635,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="64" t="s">
         <v>277</v>
       </c>
@@ -2842,7 +2677,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -2884,7 +2719,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -2926,7 +2761,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -2968,7 +2803,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>278</v>
       </c>
@@ -3010,7 +2845,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52" t="s">
         <v>279</v>
       </c>
@@ -3056,7 +2891,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -3102,7 +2937,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -3148,7 +2983,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="52" t="s">
         <v>285</v>
       </c>
@@ -3190,7 +3025,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>285</v>
       </c>
@@ -3232,7 +3067,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="B16"/>
       <c r="G16"/>
       <c r="H16"/>
@@ -3285,27 +3120,27 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.36328125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1015625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.47265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.47265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1015625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" style="19" customWidth="1"/>
-    <col min="9" max="9" width="25.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.36328125" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="35.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1796875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.7265625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="15.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.47265625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="25.1015625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.3671875" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="35.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1015625" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.15625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.734375" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="16" customFormat="1" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="43" t="s">
         <v>276</v>
       </c>
@@ -3358,7 +3193,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="52" t="s">
         <v>277</v>
       </c>
@@ -3399,7 +3234,7 @@
       </c>
       <c r="P2" s="59"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="6" t="s">
         <v>277</v>
       </c>
@@ -3440,7 +3275,7 @@
       </c>
       <c r="P3" s="62"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>277</v>
       </c>
@@ -3482,7 +3317,7 @@
       </c>
       <c r="P4" s="63"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="6" t="s">
         <v>277</v>
       </c>
@@ -3524,7 +3359,7 @@
       </c>
       <c r="P5" s="62"/>
     </row>
-    <row r="6" spans="1:17" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="64" t="s">
         <v>277</v>
       </c>
@@ -3566,7 +3401,7 @@
       </c>
       <c r="P6" s="72"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>278</v>
       </c>
@@ -3608,7 +3443,7 @@
       </c>
       <c r="P7" s="40"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -3650,7 +3485,7 @@
       </c>
       <c r="P8" s="40"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>278</v>
       </c>
@@ -3692,7 +3527,7 @@
       </c>
       <c r="P9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" t="s">
         <v>278</v>
       </c>
@@ -3734,7 +3569,7 @@
       </c>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="52" t="s">
         <v>279</v>
       </c>
@@ -3780,7 +3615,7 @@
       </c>
       <c r="P11" s="59"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="6" t="s">
         <v>279</v>
       </c>
@@ -3826,7 +3661,7 @@
       </c>
       <c r="P12" s="62"/>
     </row>
-    <row r="13" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" t="s">
         <v>279</v>
       </c>
@@ -3872,7 +3707,7 @@
       </c>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="52" t="s">
         <v>285</v>
       </c>
@@ -3914,7 +3749,7 @@
       </c>
       <c r="P14" s="59"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6" t="s">
         <v>285</v>
       </c>
@@ -3956,7 +3791,7 @@
       </c>
       <c r="P15" s="62"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6" t="s">
         <v>285</v>
       </c>
@@ -3998,7 +3833,7 @@
       </c>
       <c r="P16" s="62"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6" t="s">
         <v>285</v>
       </c>
@@ -4040,7 +3875,7 @@
       </c>
       <c r="P17" s="62"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6" t="s">
         <v>285</v>
       </c>
@@ -4082,7 +3917,7 @@
       </c>
       <c r="P18" s="62"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6" t="s">
         <v>285</v>
       </c>
@@ -4124,7 +3959,7 @@
       </c>
       <c r="P19" s="62"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6" t="s">
         <v>285</v>
       </c>
@@ -4166,7 +4001,7 @@
       </c>
       <c r="P20" s="62"/>
     </row>
-    <row r="21" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="64" t="s">
         <v>285</v>
       </c>
@@ -4208,7 +4043,7 @@
       </c>
       <c r="P21" s="72"/>
     </row>
-    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="54" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="52" t="s">
         <v>281</v>
       </c>
@@ -4250,7 +4085,7 @@
       </c>
       <c r="P22" s="59"/>
     </row>
-    <row r="23" spans="1:16" s="66" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" s="66" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A23" s="64" t="s">
         <v>281</v>
       </c>
@@ -4291,7 +4126,7 @@
       </c>
       <c r="P23" s="72"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -4301,7 +4136,7 @@
       <c r="N24"/>
       <c r="O24"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4311,7 +4146,7 @@
       <c r="N25"/>
       <c r="O25"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="B26"/>
       <c r="G26"/>
       <c r="H26"/>
@@ -4354,23 +4189,23 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F852F6A3-2ADB-4C94-AD23-1F9CFA07C02D}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:G16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4441,7 +4276,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4513,7 +4348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4584,7 +4419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -4592,7 +4427,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -4600,7 +4435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -4608,7 +4443,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -4616,7 +4451,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -4624,7 +4459,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>267</v>
       </c>
@@ -4632,7 +4467,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -4640,7 +4475,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -4648,7 +4483,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -4656,7 +4491,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -4664,7 +4499,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>270</v>
       </c>
@@ -4672,7 +4507,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>271</v>
       </c>
@@ -4680,7 +4515,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -4703,7 +4538,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -4711,7 +4546,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -4719,7 +4554,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>292</v>
       </c>
@@ -4727,7 +4562,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>293</v>
       </c>
@@ -4735,7 +4570,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>291</v>
       </c>
@@ -4751,14 +4586,15 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1486908E-A1DC-49FC-8BDF-3898C0F86D25}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:W21"/>
   <sheetViews>
@@ -4766,15 +4602,15 @@
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.7890625" bestFit="1" customWidth="1"/>
     <col min="3" max="12" width="6" bestFit="1" customWidth="1"/>
     <col min="13" max="23" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="104" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="103" t="s">
         <v>36</v>
       </c>
@@ -4845,7 +4681,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -4853,7 +4689,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -4864,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>262</v>
       </c>
@@ -4872,7 +4708,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>263</v>
       </c>
@@ -4880,7 +4716,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>264</v>
       </c>
@@ -4888,7 +4724,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>268</v>
       </c>
@@ -4896,7 +4732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>269</v>
       </c>
@@ -4904,7 +4740,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>267</v>
       </c>
@@ -4912,7 +4748,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>265</v>
       </c>
@@ -4920,7 +4756,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>266</v>
       </c>
@@ -4928,7 +4764,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -4936,7 +4772,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>295</v>
       </c>
@@ -4944,7 +4780,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>270</v>
       </c>
@@ -4952,7 +4788,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>271</v>
       </c>
@@ -4960,7 +4796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>288</v>
       </c>
@@ -4968,7 +4804,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>289</v>
       </c>
@@ -4976,7 +4812,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>290</v>
       </c>
@@ -4984,7 +4820,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>292</v>
       </c>
@@ -4992,7 +4828,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>293</v>
       </c>
@@ -5000,7 +4836,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>291</v>
       </c>
@@ -5016,7 +4852,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5027,27 +4864,27 @@
   </sheetPr>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.08984375" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1015625" customWidth="1"/>
+    <col min="3" max="3" width="12.7890625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.7890625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7890625" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="19" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="85" t="s">
         <v>308</v>
       </c>
@@ -5111,7 +4948,7 @@
         <v>StartYear2035</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="18.55" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="86" t="s">
         <v>36</v>
       </c>
@@ -5161,7 +4998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="37" t="s">
         <v>51</v>
       </c>
@@ -5216,7 +5053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="37" t="s">
         <v>54</v>
       </c>
@@ -5271,7 +5108,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="37" t="s">
         <v>262</v>
       </c>
@@ -5326,7 +5163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="37" t="s">
         <v>263</v>
       </c>
@@ -5381,7 +5218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="37" t="s">
         <v>264</v>
       </c>
@@ -5436,7 +5273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="37" t="s">
         <v>268</v>
       </c>
@@ -5491,7 +5328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="37" t="s">
         <v>269</v>
       </c>
@@ -5546,7 +5383,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="37" t="s">
         <v>267</v>
       </c>
@@ -5601,7 +5438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="37" t="s">
         <v>265</v>
       </c>
@@ -5656,7 +5493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="37" t="s">
         <v>266</v>
       </c>
@@ -5711,7 +5548,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="37" t="s">
         <v>282</v>
       </c>
@@ -5766,7 +5603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="37" t="s">
         <v>295</v>
       </c>
@@ -5821,7 +5658,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="37" t="s">
         <v>270</v>
       </c>
@@ -5876,7 +5713,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="37" t="s">
         <v>271</v>
       </c>
@@ -5931,7 +5768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>288</v>
       </c>
@@ -5986,7 +5823,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="5" t="s">
         <v>289</v>
       </c>
@@ -6041,7 +5878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>290</v>
       </c>
@@ -6096,7 +5933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="5" t="s">
         <v>292</v>
       </c>
@@ -6151,7 +5988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>293</v>
       </c>
@@ -6206,7 +6043,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="5" t="s">
         <v>291</v>
       </c>
@@ -6261,7 +6098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>261</v>
       </c>
@@ -6316,7 +6153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="5" t="s">
         <v>149</v>
       </c>
@@ -6403,7 +6240,7 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A266884E-25A4-43DE-83DF-867907ACC671}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -6411,17 +6248,17 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.89453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.62890625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="82" t="s">
         <v>298</v>
       </c>
@@ -6441,7 +6278,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>296</v>
       </c>
@@ -6461,7 +6298,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>296</v>
       </c>
@@ -6479,7 +6316,7 @@
       </c>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>296</v>
       </c>
@@ -6497,7 +6334,7 @@
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>345</v>
       </c>
@@ -6517,7 +6354,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>345</v>
       </c>
@@ -6535,7 +6372,7 @@
       </c>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>345</v>
       </c>
@@ -6553,7 +6390,7 @@
       </c>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>294</v>
       </c>
@@ -6573,7 +6410,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>294</v>
       </c>
@@ -6591,7 +6428,7 @@
       </c>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="5" t="s">
         <v>294</v>
       </c>
@@ -6609,7 +6446,7 @@
       </c>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>343</v>
       </c>
@@ -6629,7 +6466,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5" t="s">
         <v>343</v>
       </c>
@@ -6647,7 +6484,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>343</v>
       </c>
@@ -6681,6 +6518,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -6704,14 +6542,14 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.734375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="2" max="2" width="77.81640625" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.15625" customWidth="1"/>
+    <col min="2" max="2" width="77.7890625" customWidth="1"/>
+    <col min="3" max="3" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -6722,7 +6560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -6733,7 +6571,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6744,7 +6582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -6755,7 +6593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -6766,7 +6604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6777,7 +6615,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6788,7 +6626,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6799,7 +6637,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6810,7 +6648,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6823,6 +6661,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6834,17 +6673,17 @@
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.7890625" customWidth="1"/>
     <col min="6" max="6" width="23" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.54296875" customWidth="1"/>
-    <col min="10" max="10" width="12.7265625" customWidth="1"/>
-    <col min="12" max="12" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5234375" customWidth="1"/>
+    <col min="10" max="10" width="12.734375" customWidth="1"/>
+    <col min="12" max="12" width="10.15625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="17" t="s">
         <v>145</v>
       </c>
@@ -6870,7 +6709,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="4" t="s">
         <v>171</v>
       </c>
@@ -6896,7 +6735,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4" t="s">
         <v>172</v>
       </c>
@@ -6922,7 +6761,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4" t="s">
         <v>173</v>
       </c>
@@ -6948,7 +6787,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="4" t="s">
         <v>68</v>
       </c>
@@ -6974,7 +6813,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4" t="s">
         <v>65</v>
       </c>
@@ -6997,7 +6836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="D7" s="4" t="s">
         <v>65</v>
@@ -7018,7 +6857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="4"/>
       <c r="D8" s="4" t="s">
         <v>66</v>
@@ -7039,7 +6878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="4"/>
       <c r="D9" s="4" t="s">
         <v>4</v>
@@ -7060,7 +6899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="4" t="s">
         <v>71</v>
       </c>
@@ -7080,7 +6919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="4" t="s">
         <v>72</v>
       </c>
@@ -7100,7 +6939,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
@@ -7120,7 +6959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="4" t="s">
         <v>100</v>
       </c>
@@ -7140,7 +6979,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="4" t="s">
         <v>76</v>
       </c>
@@ -7160,7 +6999,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" s="4" t="s">
         <v>1</v>
       </c>
@@ -7180,7 +7019,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" s="4" t="s">
         <v>227</v>
       </c>
@@ -7197,7 +7036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" s="4" t="s">
         <v>228</v>
       </c>
@@ -7214,7 +7053,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" s="4" t="s">
         <v>229</v>
       </c>
@@ -7231,7 +7070,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" s="4" t="s">
         <v>233</v>
       </c>
@@ -7248,7 +7087,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" s="4" t="s">
         <v>234</v>
       </c>
@@ -7265,7 +7104,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" s="4" t="s">
         <v>160</v>
       </c>
@@ -7282,7 +7121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" s="4" t="s">
         <v>77</v>
       </c>
@@ -7299,7 +7138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" s="4" t="s">
         <v>75</v>
       </c>
@@ -7316,7 +7155,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" s="4" t="s">
         <v>73</v>
       </c>
@@ -7333,7 +7172,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" s="4" t="s">
         <v>67</v>
       </c>
@@ -7347,7 +7186,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" s="4" t="s">
         <v>174</v>
       </c>
@@ -7361,7 +7200,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" s="4" t="s">
         <v>235</v>
       </c>
@@ -7375,7 +7214,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" s="4" t="s">
         <v>230</v>
       </c>
@@ -7389,7 +7228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" s="4" t="s">
         <v>226</v>
       </c>
@@ -7403,7 +7242,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F30" s="4" t="s">
         <v>165</v>
       </c>
@@ -7417,7 +7256,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F31" s="4" t="s">
         <v>78</v>
       </c>
@@ -7434,7 +7273,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" s="4" t="s">
         <v>163</v>
       </c>
@@ -7451,7 +7290,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" s="4" t="s">
         <v>236</v>
       </c>
@@ -7468,7 +7307,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F34" s="4" t="s">
         <v>237</v>
       </c>
@@ -7485,7 +7324,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F35" s="4" t="s">
         <v>238</v>
       </c>
@@ -7502,7 +7341,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F36" s="4" t="s">
         <v>239</v>
       </c>
@@ -7519,7 +7358,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" s="4" t="s">
         <v>240</v>
       </c>
@@ -7536,7 +7375,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F38" s="4" t="s">
         <v>241</v>
       </c>
@@ -7553,7 +7392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F39" s="4" t="s">
         <v>242</v>
       </c>
@@ -7570,7 +7409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F40" s="4" t="s">
         <v>243</v>
       </c>
@@ -7587,7 +7426,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F41" s="4" t="s">
         <v>244</v>
       </c>
@@ -7604,7 +7443,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F42" s="4" t="s">
         <v>245</v>
       </c>
@@ -7621,7 +7460,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F43" s="4" t="s">
         <v>164</v>
       </c>
@@ -7638,7 +7477,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" s="4" t="s">
         <v>70</v>
       </c>
@@ -7649,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="6:10" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" s="4" t="s">
         <v>65</v>
       </c>
@@ -7660,283 +7499,283 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F50"/>
     </row>
-    <row r="51" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F51"/>
     </row>
-    <row r="52" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F52"/>
     </row>
-    <row r="53" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F53"/>
     </row>
-    <row r="54" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F54"/>
     </row>
-    <row r="55" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F55"/>
     </row>
-    <row r="56" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F56"/>
     </row>
-    <row r="57" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F57"/>
     </row>
-    <row r="58" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F58"/>
     </row>
-    <row r="59" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F59"/>
     </row>
-    <row r="60" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F60"/>
     </row>
-    <row r="61" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F61"/>
     </row>
-    <row r="62" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F62"/>
     </row>
-    <row r="63" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F63"/>
     </row>
-    <row r="64" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F64"/>
     </row>
-    <row r="65" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F65"/>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F66"/>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F67"/>
     </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F68"/>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F69"/>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F70"/>
     </row>
-    <row r="71" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F71"/>
     </row>
-    <row r="72" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F72"/>
     </row>
-    <row r="73" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F73"/>
     </row>
-    <row r="74" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F74"/>
     </row>
-    <row r="75" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F75"/>
     </row>
-    <row r="76" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F76"/>
     </row>
-    <row r="77" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F77"/>
     </row>
-    <row r="78" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F78"/>
     </row>
-    <row r="79" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F79"/>
     </row>
-    <row r="80" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F80"/>
     </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F81"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F82"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F83"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F84"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F85"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F86"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F87"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F88"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F89"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F90"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F91"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F92"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F93"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F94"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F95"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F96"/>
     </row>
-    <row r="97" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F97"/>
     </row>
-    <row r="98" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F98"/>
     </row>
-    <row r="99" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F99"/>
     </row>
-    <row r="100" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F100"/>
     </row>
-    <row r="101" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F101"/>
     </row>
-    <row r="102" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F102"/>
     </row>
-    <row r="103" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F103"/>
     </row>
-    <row r="104" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F104"/>
     </row>
-    <row r="105" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F105"/>
     </row>
-    <row r="106" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F106"/>
     </row>
-    <row r="107" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F107"/>
     </row>
-    <row r="108" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F108"/>
     </row>
-    <row r="109" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F109"/>
     </row>
-    <row r="110" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F110"/>
     </row>
-    <row r="111" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F111"/>
     </row>
-    <row r="112" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F112"/>
     </row>
-    <row r="113" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F113"/>
     </row>
-    <row r="114" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F114"/>
     </row>
-    <row r="115" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F115"/>
     </row>
-    <row r="116" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F116"/>
     </row>
-    <row r="117" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F117"/>
     </row>
-    <row r="118" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F118"/>
     </row>
-    <row r="119" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F119"/>
     </row>
-    <row r="120" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F120"/>
     </row>
-    <row r="121" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F121"/>
     </row>
-    <row r="122" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F122"/>
     </row>
-    <row r="123" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F123"/>
     </row>
-    <row r="124" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F124"/>
     </row>
-    <row r="125" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F125"/>
     </row>
-    <row r="126" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F126"/>
     </row>
-    <row r="127" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F127"/>
     </row>
-    <row r="128" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F128"/>
     </row>
-    <row r="129" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F129"/>
     </row>
-    <row r="130" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F130"/>
     </row>
-    <row r="131" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F131"/>
     </row>
-    <row r="132" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F132"/>
     </row>
-    <row r="133" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F133"/>
     </row>
-    <row r="134" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F134"/>
     </row>
-    <row r="135" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F135"/>
     </row>
-    <row r="136" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F136"/>
     </row>
-    <row r="137" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F137"/>
     </row>
-    <row r="138" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F138"/>
     </row>
-    <row r="139" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F139"/>
     </row>
-    <row r="140" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F140"/>
     </row>
-    <row r="141" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F141"/>
     </row>
-    <row r="142" spans="6:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F142"/>
     </row>
   </sheetData>
@@ -7952,27 +7791,27 @@
   </sheetPr>
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="22.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="22.1015625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.26953125" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.26171875" customWidth="1"/>
+    <col min="5" max="5" width="8.15625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.89453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.62890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.7890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.89453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="84" customFormat="1" ht="112" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="83" t="s">
         <v>6</v>
       </c>
@@ -8016,7 +7855,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>345</v>
       </c>
@@ -8060,7 +7899,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -8070,7 +7909,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -8080,7 +7919,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -8091,7 +7930,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -8101,7 +7940,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -8127,7 +7966,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -8150,23 +7990,23 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="30.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="15"/>
-    <col min="8" max="8" width="11.54296875" style="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.15625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5234375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.734375" style="15"/>
+    <col min="8" max="8" width="11.5234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8" ht="16.2" x14ac:dyDescent="0.85">
       <c r="A1" s="31" t="s">
         <v>17</v>
       </c>
@@ -8192,7 +8032,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>179</v>
       </c>
@@ -8218,7 +8058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>181</v>
       </c>
@@ -8244,7 +8084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -8270,7 +8110,7 @@
         <v>0.98846927759109204</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>111</v>
       </c>
@@ -8296,7 +8136,7 @@
         <v>0.99316389691241536</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>110</v>
       </c>
@@ -8322,7 +8162,7 @@
         <v>0.98022410443373342</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -8348,7 +8188,7 @@
         <v>0.97771923789514636</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>108</v>
       </c>
@@ -8374,7 +8214,7 @@
         <v>0.97393215219000295</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>107</v>
       </c>
@@ -8400,7 +8240,7 @@
         <v>0.95811661983967134</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>106</v>
       </c>
@@ -8426,7 +8266,7 @@
         <v>0.91700404320467122</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -8452,7 +8292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>194</v>
       </c>
@@ -8478,7 +8318,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -8504,7 +8344,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>196</v>
       </c>
@@ -8530,7 +8370,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>197</v>
       </c>
@@ -8556,7 +8396,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>198</v>
       </c>
@@ -8582,7 +8422,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>199</v>
       </c>
@@ -8608,7 +8448,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>135</v>
       </c>
@@ -8634,7 +8474,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>136</v>
       </c>
@@ -8660,7 +8500,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -8686,7 +8526,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>134</v>
       </c>
@@ -8712,7 +8552,7 @@
         <v>0.98007627674588871</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -8738,7 +8578,7 @@
         <v>0.96306068601583117</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>201</v>
       </c>
@@ -8764,7 +8604,7 @@
         <v>0.95480225988700573</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>202</v>
       </c>
@@ -8790,7 +8630,7 @@
         <v>0.95161290322580649</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>203</v>
       </c>
@@ -8816,7 +8656,7 @@
         <v>0.96150047483380818</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>204</v>
       </c>
@@ -8842,7 +8682,7 @@
         <v>0.96508794519599173</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -8868,7 +8708,7 @@
         <v>0.9885057471264368</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>137</v>
       </c>
@@ -8894,7 +8734,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -8920,7 +8760,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>131</v>
       </c>
@@ -8946,7 +8786,7 @@
         <v>0.98481071022469158</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>132</v>
       </c>
@@ -9014,16 +8854,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="2" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.89453125" customWidth="1"/>
+    <col min="2" max="3" width="5.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="29.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="92" t="s">
         <v>314</v>
       </c>
@@ -9034,7 +8874,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="95" t="s">
         <v>103</v>
       </c>
@@ -9045,7 +8885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="95" t="s">
         <v>180</v>
       </c>
@@ -9056,7 +8896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="100" t="s">
         <v>317</v>
       </c>
@@ -9065,7 +8905,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9080,14 +8921,14 @@
       <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26171875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -9101,7 +8942,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -9115,7 +8956,7 @@
         <v>3575570</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -9130,7 +8971,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -9145,7 +8986,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -9160,7 +9001,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -9174,7 +9015,7 @@
         <v>3155986</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -9188,7 +9029,7 @@
         <v>3116265</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -9202,7 +9043,7 @@
         <v>3084419</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -9216,7 +9057,7 @@
         <v>3049213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -9230,7 +9071,7 @@
         <v>3002143</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -9244,7 +9085,7 @@
         <v>2945614</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -9258,7 +9099,7 @@
         <v>2884765</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -9273,7 +9114,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -9287,7 +9128,7 @@
         <v>2770640</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -9301,7 +9142,7 @@
         <v>2726244</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -9315,7 +9156,7 @@
         <v>2689714</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -9329,7 +9170,7 @@
         <v>2657834</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -9343,7 +9184,7 @@
         <v>2627389</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -9357,7 +9198,7 @@
         <v>2595159</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -9371,7 +9212,7 @@
         <v>2558367</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -9385,7 +9226,7 @@
         <v>2515982</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -9399,7 +9240,7 @@
         <v>2467416</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -9413,7 +9254,7 @@
         <v>2412076</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -9427,7 +9268,7 @@
         <v>2349372</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -9441,7 +9282,7 @@
         <v>2278980</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -9455,7 +9296,7 @@
         <v>2201663</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -9469,7 +9310,7 @@
         <v>2118447</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -9483,7 +9324,7 @@
         <v>2030363</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -9497,7 +9338,7 @@
         <v>1938438</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -9511,7 +9352,7 @@
         <v>1844075</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -9525,7 +9366,7 @@
         <v>1750163</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -9539,7 +9380,7 @@
         <v>1659968</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -9553,7 +9394,7 @@
         <v>1576752</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -9567,7 +9408,7 @@
         <v>1503779</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -9581,7 +9422,7 @@
         <v>1443096</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -9595,7 +9436,7 @@
         <v>1391888</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -9609,7 +9450,7 @@
         <v>1346124</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -9623,7 +9464,7 @@
         <v>1301771</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -9637,7 +9478,7 @@
         <v>1254797</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -9651,7 +9492,7 @@
         <v>1202349</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -9665,7 +9506,7 @@
         <v>1146286</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -9679,7 +9520,7 @@
         <v>1089647</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -9693,7 +9534,7 @@
         <v>1035469</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -9707,7 +9548,7 @@
         <v>986789</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -9721,7 +9562,7 @@
         <v>945756</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -9735,7 +9576,7 @@
         <v>910958</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -9749,7 +9590,7 @@
         <v>880091</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -9763,7 +9604,7 @@
         <v>850854</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -9777,7 +9618,7 @@
         <v>820942</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -9791,7 +9632,7 @@
         <v>788573</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -9805,7 +9646,7 @@
         <v>754051</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -9819,7 +9660,7 @@
         <v>718191</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -9833,7 +9674,7 @@
         <v>681818</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -9847,7 +9688,7 @@
         <v>645749</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -9861,7 +9702,7 @@
         <v>610778</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -9875,7 +9716,7 @@
         <v>577578</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -9889,7 +9730,7 @@
         <v>546796</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -9903,7 +9744,7 @@
         <v>519076</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -9917,7 +9758,7 @@
         <v>495064</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -9931,7 +9772,7 @@
         <v>475071</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -9945,7 +9786,7 @@
         <v>458062</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -9959,7 +9800,7 @@
         <v>442669</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -9973,7 +9814,7 @@
         <v>427522</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -9987,7 +9828,7 @@
         <v>411253</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -10001,7 +9842,7 @@
         <v>392879</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -10015,7 +9856,7 @@
         <v>372973</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -10029,7 +9870,7 @@
         <v>352494</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -10043,7 +9884,7 @@
         <v>332403</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -10057,7 +9898,7 @@
         <v>313658</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -10071,7 +9912,7 @@
         <v>296932</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -10085,7 +9926,7 @@
         <v>281741</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -10099,7 +9940,7 @@
         <v>267317</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -10113,7 +9954,7 @@
         <v>252889</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -10127,7 +9968,7 @@
         <v>237687</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -10141,7 +9982,7 @@
         <v>221142</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -10155,7 +9996,7 @@
         <v>203487</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -10169,7 +10010,7 @@
         <v>185155</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -10183,7 +10024,7 @@
         <v>166577</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -10197,7 +10038,7 @@
         <v>148186</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -10211,7 +10052,7 @@
         <v>130387</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -10225,7 +10066,7 @@
         <v>113452</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -10239,7 +10080,7 @@
         <v>97630</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -10253,7 +10094,7 @@
         <v>83166</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -10267,7 +10108,7 @@
         <v>70305</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -10281,7 +10122,7 @@
         <v>59208</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -10295,7 +10136,7 @@
         <v>49694</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -10309,7 +10150,7 @@
         <v>41497</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -10323,7 +10164,7 @@
         <v>34350</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -10337,7 +10178,7 @@
         <v>27988</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -10351,7 +10192,7 @@
         <v>22203</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -10365,7 +10206,7 @@
         <v>17007</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -10379,7 +10220,7 @@
         <v>12474</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -10393,7 +10234,7 @@
         <v>8674</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -10407,7 +10248,7 @@
         <v>5680</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -10421,7 +10262,7 @@
         <v>3526</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -10435,7 +10276,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -10449,7 +10290,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -10463,7 +10304,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -10477,7 +10318,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -10491,7 +10332,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -10505,7 +10346,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -10527,6 +10368,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10541,14 +10383,14 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="9.26953125" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="9.26171875" customWidth="1"/>
+    <col min="6" max="6" width="13.5234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>31</v>
       </c>
@@ -10562,7 +10404,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="36" t="s">
         <v>35</v>
       </c>
@@ -10576,7 +10418,7 @@
         <v>48809</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="36">
         <v>1</v>
       </c>
@@ -10591,7 +10433,7 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="36">
         <v>2</v>
       </c>
@@ -10606,7 +10448,7 @@
       </c>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="36">
         <v>3</v>
       </c>
@@ -10621,7 +10463,7 @@
       </c>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="36">
         <v>4</v>
       </c>
@@ -10635,7 +10477,7 @@
         <v>47623</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="36">
         <v>5</v>
       </c>
@@ -10649,7 +10491,7 @@
         <v>50657</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="36">
         <v>6</v>
       </c>
@@ -10663,7 +10505,7 @@
         <v>54150</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="36">
         <v>7</v>
       </c>
@@ -10677,7 +10519,7 @@
         <v>57562</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="36">
         <v>8</v>
       </c>
@@ -10691,7 +10533,7 @@
         <v>60434</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="36">
         <v>9</v>
       </c>
@@ -10705,7 +10547,7 @@
         <v>62648</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="36">
         <v>10</v>
       </c>
@@ -10719,7 +10561,7 @@
         <v>64171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="36">
         <v>11</v>
       </c>
@@ -10734,7 +10576,7 @@
       </c>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="36">
         <v>12</v>
       </c>
@@ -10748,7 +10590,7 @@
         <v>65009</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="36">
         <v>13</v>
       </c>
@@ -10762,7 +10604,7 @@
         <v>64277</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="36">
         <v>14</v>
       </c>
@@ -10776,7 +10618,7 @@
         <v>62842</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="36">
         <v>15</v>
       </c>
@@ -10790,7 +10632,7 @@
         <v>60798</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="36">
         <v>16</v>
       </c>
@@ -10804,7 +10646,7 @@
         <v>58233</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="36">
         <v>17</v>
       </c>
@@ -10818,7 +10660,7 @@
         <v>55238</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="36">
         <v>18</v>
       </c>
@@ -10832,7 +10674,7 @@
         <v>51920</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="36">
         <v>19</v>
       </c>
@@ -10846,7 +10688,7 @@
         <v>48445</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="36">
         <v>20</v>
       </c>
@@ -10860,7 +10702,7 @@
         <v>44996</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="36">
         <v>21</v>
       </c>
@@ -10874,7 +10716,7 @@
         <v>41753</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="36">
         <v>22</v>
       </c>
@@ -10888,7 +10730,7 @@
         <v>38902</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="36">
         <v>23</v>
       </c>
@@ -10902,7 +10744,7 @@
         <v>36572</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="36">
         <v>24</v>
       </c>
@@ -10916,7 +10758,7 @@
         <v>34692</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="36">
         <v>25</v>
       </c>
@@ -10930,7 +10772,7 @@
         <v>33142</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="36">
         <v>26</v>
       </c>
@@ -10944,7 +10786,7 @@
         <v>31801</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="36">
         <v>27</v>
       </c>
@@ -10958,7 +10800,7 @@
         <v>30547</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="36">
         <v>28</v>
       </c>
@@ -10972,7 +10814,7 @@
         <v>29292</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="36">
         <v>29</v>
       </c>
@@ -10986,7 +10828,7 @@
         <v>28084</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="36">
         <v>30</v>
       </c>
@@ -11000,7 +10842,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="36">
         <v>31</v>
       </c>
@@ -11014,7 +10856,7 @@
         <v>26127</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="36">
         <v>32</v>
       </c>
@@ -11028,7 +10870,7 @@
         <v>25540</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="36">
         <v>33</v>
       </c>
@@ -11042,7 +10884,7 @@
         <v>25287</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="36">
         <v>34</v>
       </c>
@@ -11056,7 +10898,7 @@
         <v>25280</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="36">
         <v>35</v>
       </c>
@@ -11070,7 +10912,7 @@
         <v>25400</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="36">
         <v>36</v>
       </c>
@@ -11084,7 +10926,7 @@
         <v>25525</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="36">
         <v>37</v>
       </c>
@@ -11098,7 +10940,7 @@
         <v>25534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="36">
         <v>38</v>
       </c>
@@ -11112,7 +10954,7 @@
         <v>25328</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="36">
         <v>39</v>
       </c>
@@ -11126,7 +10968,7 @@
         <v>24886</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="36">
         <v>40</v>
       </c>
@@ -11140,7 +10982,7 @@
         <v>24209</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="36">
         <v>41</v>
       </c>
@@ -11154,7 +10996,7 @@
         <v>23299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="36">
         <v>42</v>
       </c>
@@ -11168,7 +11010,7 @@
         <v>22156</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="36">
         <v>43</v>
       </c>
@@ -11182,7 +11024,7 @@
         <v>20797</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="36">
         <v>44</v>
       </c>
@@ -11196,7 +11038,7 @@
         <v>19303</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="36">
         <v>45</v>
       </c>
@@ -11210,7 +11052,7 @@
         <v>17771</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="36">
         <v>46</v>
       </c>
@@ -11224,7 +11066,7 @@
         <v>16299</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="36">
         <v>47</v>
       </c>
@@ -11238,7 +11080,7 @@
         <v>14982</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="36">
         <v>48</v>
       </c>
@@ -11252,7 +11094,7 @@
         <v>13891</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="36">
         <v>49</v>
       </c>
@@ -11266,7 +11108,7 @@
         <v>12985</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="36">
         <v>50</v>
       </c>
@@ -11280,7 +11122,7 @@
         <v>12192</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="36">
         <v>51</v>
       </c>
@@ -11294,7 +11136,7 @@
         <v>11444</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="36">
         <v>52</v>
       </c>
@@ -11308,7 +11150,7 @@
         <v>10673</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="36">
         <v>53</v>
       </c>
@@ -11322,7 +11164,7 @@
         <v>9830</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="36">
         <v>54</v>
       </c>
@@ -11336,7 +11178,7 @@
         <v>8951</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="36">
         <v>55</v>
       </c>
@@ -11350,7 +11192,7 @@
         <v>8095</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="36">
         <v>56</v>
       </c>
@@ -11364,7 +11206,7 @@
         <v>7320</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="36">
         <v>57</v>
       </c>
@@ -11378,7 +11220,7 @@
         <v>6684</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="36">
         <v>58</v>
       </c>
@@ -11392,7 +11234,7 @@
         <v>6224</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="36">
         <v>59</v>
       </c>
@@ -11406,7 +11248,7 @@
         <v>5892</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="36">
         <v>60</v>
       </c>
@@ -11420,7 +11262,7 @@
         <v>5622</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="36">
         <v>61</v>
       </c>
@@ -11434,7 +11276,7 @@
         <v>5345</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="36">
         <v>62</v>
       </c>
@@ -11448,7 +11290,7 @@
         <v>4994</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="36">
         <v>63</v>
       </c>
@@ -11462,7 +11304,7 @@
         <v>4521</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="36">
         <v>64</v>
       </c>
@@ -11476,7 +11318,7 @@
         <v>3965</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="36">
         <v>65</v>
       </c>
@@ -11490,7 +11332,7 @@
         <v>3386</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="36">
         <v>66</v>
       </c>
@@ -11504,7 +11346,7 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="36">
         <v>67</v>
       </c>
@@ -11518,7 +11360,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="36">
         <v>68</v>
       </c>
@@ -11532,7 +11374,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="36">
         <v>69</v>
       </c>
@@ -11546,7 +11388,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="36">
         <v>70</v>
       </c>
@@ -11560,7 +11402,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="36">
         <v>71</v>
       </c>
@@ -11574,7 +11416,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="36">
         <v>72</v>
       </c>
@@ -11588,7 +11430,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="36">
         <v>73</v>
       </c>
@@ -11602,7 +11444,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="36">
         <v>74</v>
       </c>
@@ -11616,7 +11458,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="36">
         <v>75</v>
       </c>
@@ -11630,7 +11472,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="36">
         <v>76</v>
       </c>
@@ -11644,7 +11486,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="36">
         <v>77</v>
       </c>
@@ -11658,7 +11500,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="36">
         <v>78</v>
       </c>
@@ -11672,7 +11514,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="36">
         <v>79</v>
       </c>
@@ -11686,7 +11528,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="36">
         <v>80</v>
       </c>
@@ -11700,7 +11542,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="36">
         <v>81</v>
       </c>
@@ -11714,7 +11556,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="36">
         <v>82</v>
       </c>
@@ -11728,7 +11570,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="36">
         <v>83</v>
       </c>
@@ -11742,7 +11584,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="36">
         <v>84</v>
       </c>
@@ -11756,7 +11598,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="36">
         <v>85</v>
       </c>
@@ -11770,7 +11612,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="36">
         <v>86</v>
       </c>
@@ -11784,7 +11626,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="36">
         <v>87</v>
       </c>
@@ -11798,7 +11640,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="36">
         <v>88</v>
       </c>
@@ -11812,7 +11654,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="36">
         <v>89</v>
       </c>
@@ -11826,7 +11668,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="36">
         <v>90</v>
       </c>
@@ -11840,7 +11682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="36">
         <v>91</v>
       </c>
@@ -11854,7 +11696,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="36">
         <v>92</v>
       </c>
@@ -11868,7 +11710,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="36">
         <v>93</v>
       </c>
@@ -11882,7 +11724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="36">
         <v>94</v>
       </c>
@@ -11896,7 +11738,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="36">
         <v>95</v>
       </c>
@@ -11910,7 +11752,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="36">
         <v>96</v>
       </c>
@@ -11924,7 +11766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="36">
         <v>97</v>
       </c>
@@ -11938,7 +11780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="36">
         <v>98</v>
       </c>
@@ -11952,7 +11794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="36">
         <v>99</v>
       </c>
@@ -11966,7 +11808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="36">
         <v>100</v>
       </c>
@@ -11988,6 +11830,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12002,12 +11845,12 @@
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="27.54296875" customWidth="1"/>
+    <col min="1" max="1" width="27.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>115</v>
       </c>
@@ -12018,7 +11861,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>117</v>
       </c>
@@ -12027,7 +11870,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35" t="s">
         <v>118</v>
       </c>
@@ -12036,7 +11879,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="35" t="s">
         <v>119</v>
       </c>
@@ -12045,7 +11888,7 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35" t="s">
         <v>120</v>
       </c>
@@ -12056,7 +11899,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>121</v>
       </c>
@@ -12067,7 +11910,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35" t="s">
         <v>122</v>
       </c>
@@ -12078,7 +11921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>123</v>
       </c>
@@ -12087,7 +11930,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35" t="s">
         <v>124</v>
       </c>
@@ -12096,7 +11939,7 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35" t="s">
         <v>125</v>
       </c>
@@ -12129,14 +11972,14 @@
       <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" customWidth="1"/>
-    <col min="2" max="4" width="12.81640625" customWidth="1"/>
-    <col min="5" max="5" width="20.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.7890625" customWidth="1"/>
+    <col min="2" max="4" width="12.7890625" customWidth="1"/>
+    <col min="5" max="5" width="20.1015625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>79</v>
       </c>
@@ -12150,7 +11993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35" t="s">
         <v>80</v>
       </c>
@@ -12164,7 +12007,7 @@
         <v>6.6936482067843195E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35" t="s">
         <v>81</v>
       </c>
@@ -12178,7 +12021,7 @@
         <v>6.4084654318813022E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="35" t="s">
         <v>82</v>
       </c>
@@ -12192,7 +12035,7 @@
         <v>6.0600247743600254E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35" t="s">
         <v>83</v>
       </c>
@@ -12206,7 +12049,7 @@
         <v>6.0703878213611638E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35" t="s">
         <v>84</v>
       </c>
@@ -12220,7 +12063,7 @@
         <v>6.4051402944234115E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35" t="s">
         <v>85</v>
       </c>
@@ -12234,7 +12077,7 @@
         <v>7.8032799832215824E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35" t="s">
         <v>86</v>
       </c>
@@ -12248,7 +12091,7 @@
         <v>9.129394265165322E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35" t="s">
         <v>87</v>
       </c>
@@ -12262,7 +12105,7 @@
         <v>7.2674867820140321E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="35" t="s">
         <v>88</v>
       </c>
@@ -12276,7 +12119,7 @@
         <v>9.393164701025386E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35" t="s">
         <v>89</v>
       </c>
@@ -12290,7 +12133,7 @@
         <v>0.1277403545528342</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="35" t="s">
         <v>90</v>
       </c>
@@ -12304,7 +12147,7 @@
         <v>0.13255239757366111</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35" t="s">
         <v>91</v>
       </c>
@@ -12335,15 +12178,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.453125" customWidth="1"/>
+    <col min="1" max="1" width="19.47265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.47265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.47265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>92</v>
       </c>
@@ -12372,7 +12215,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>51</v>
       </c>
@@ -12397,7 +12240,7 @@
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="5" t="s">
         <v>263</v>
       </c>
@@ -12422,7 +12265,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>264</v>
       </c>
@@ -12441,7 +12284,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>262</v>
       </c>
@@ -12464,7 +12307,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>267</v>
       </c>
@@ -12485,7 +12328,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>270</v>
       </c>
@@ -12504,7 +12347,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>271</v>
       </c>
@@ -12523,7 +12366,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>282</v>
       </c>
@@ -12544,5 +12387,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>